--- a/Assets/Doc/方块江湖.xlsx
+++ b/Assets/Doc/方块江湖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="基本概念" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Body Parts" sheetId="9" r:id="rId5"/>
     <sheet name="Health总结（rimworld）" sheetId="8" r:id="rId6"/>
     <sheet name="伤害类型" sheetId="4" r:id="rId7"/>
-    <sheet name="Health (3)" sheetId="6" r:id="rId8"/>
+    <sheet name="装备_防具" sheetId="6" r:id="rId8"/>
     <sheet name="Health (4)" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="375">
   <si>
     <t>迅疾</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1002,10 +1002,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>内力加成一级属性公式 x = 0.5*[ sqrt(8 * Enegy + 1) - 1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>位置</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1303,10 +1299,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>疼痛 = (原始伤害/部位生命倍率) * 疼痛倍率 = (实际受到伤害点数 / 部位伤害率 /部位生命倍率) * 疼痛倍率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>外伤吸收率 = 部位覆盖率 * 护体真气 / ( 部位生命值 + 部位覆盖率 * 护体真气 )</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1472,6 +1464,82 @@
   </si>
   <si>
     <t xml:space="preserve">体外部位受伤 = Min( Damage -  Armor * (1 - Ignore), PenetrateResist * (1 - Ignore) ) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力加成一级属性公式 x = 0.5*[ sqrt(8 * Enegy + 1) - 1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼痛 = (原始伤害/部位生命倍率) * 疼痛倍率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>割伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性枚举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害穿透抗性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1742,7 +1810,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1852,6 +1920,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2410,7 +2481,7 @@
         <v>190</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
@@ -2421,7 +2492,7 @@
         <v>91</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>22</v>
@@ -2479,10 +2550,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>233</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -2509,10 +2580,10 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>202</v>
@@ -2523,18 +2594,18 @@
         <v>184</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>329</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="33" x14ac:dyDescent="0.2">
@@ -2542,7 +2613,7 @@
         <v>71</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>201</v>
@@ -2550,24 +2621,24 @@
     </row>
     <row r="26" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>338</v>
-      </c>
       <c r="E27" s="27" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2649,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
@@ -2613,7 +2684,7 @@
     </row>
     <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.2">
       <c r="B34" s="32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>200</v>
@@ -2622,7 +2693,7 @@
         <v>172</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -2652,18 +2723,18 @@
     <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.2">
       <c r="B37" s="32"/>
       <c r="C37" s="27" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>93</v>
@@ -2804,46 +2875,46 @@
     </row>
     <row r="69" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C69" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C70" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C71" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C72" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3092,7 +3163,7 @@
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
       <c r="C18" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>42</v>
@@ -3112,7 +3183,7 @@
         <v>35</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>52</v>
@@ -3148,8 +3219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B12:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3174,27 +3245,27 @@
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3202,12 +3273,12 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>229</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -3239,22 +3310,22 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -3262,7 +3333,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -3276,69 +3347,69 @@
     </row>
     <row r="40" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="37" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="37"/>
       <c r="C42" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="37"/>
       <c r="C44" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="37"/>
       <c r="C46" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="37"/>
       <c r="C47" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="37"/>
       <c r="C49" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3454,7 @@
         <v>143</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
@@ -3391,11 +3462,11 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E3" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="37"/>
     </row>
@@ -3404,22 +3475,22 @@
         <v>144</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>221</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>228</v>
@@ -3431,13 +3502,13 @@
         <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -3445,7 +3516,7 @@
         <v>220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>165</v>
@@ -3475,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -3483,10 +3554,10 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>220</v>
@@ -3515,18 +3586,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" s="7">
         <v>0.1</v>
@@ -3549,18 +3620,18 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="7">
         <v>0.03</v>
@@ -3583,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -3591,13 +3662,13 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="7">
         <v>0.04</v>
@@ -3620,7 +3691,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N9" s="7">
         <v>0.5</v>
@@ -3628,13 +3699,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" s="7">
         <v>0.04</v>
@@ -3657,7 +3728,7 @@
         <v>1.5</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N10" s="7">
         <v>0.5</v>
@@ -3665,10 +3736,10 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>220</v>
@@ -3698,18 +3769,18 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E12" s="7">
         <v>0.03</v>
@@ -3732,7 +3803,7 @@
         <v>1.5</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N12" s="7">
         <v>0.5</v>
@@ -3740,13 +3811,13 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" s="7">
         <v>0.03</v>
@@ -3769,7 +3840,7 @@
         <v>1.5</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N13" s="7">
         <v>0.5</v>
@@ -3777,13 +3848,13 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="7">
         <v>0.05</v>
@@ -3806,7 +3877,7 @@
         <v>1.5</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -3814,13 +3885,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="7">
         <v>0.06</v>
@@ -3843,15 +3914,15 @@
         <v>1.5</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>220</v>
@@ -3877,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -3885,10 +3956,10 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>220</v>
@@ -3914,15 +3985,15 @@
         <v>3</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>222</v>
@@ -3955,7 +4026,7 @@
         <v>1.2</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -3963,10 +4034,10 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>225</v>
@@ -3992,15 +4063,15 @@
         <v>1.5</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>223</v>
@@ -4026,7 +4097,7 @@
         <v>1.5</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N20" s="7">
         <v>1</v>
@@ -4034,10 +4105,10 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>223</v>
@@ -4063,15 +4134,15 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>223</v>
@@ -4097,15 +4168,15 @@
         <v>1.5</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>223</v>
@@ -4131,15 +4202,15 @@
         <v>1.5</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>223</v>
@@ -4165,15 +4236,15 @@
         <v>1.5</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>223</v>
@@ -4199,15 +4270,15 @@
         <v>1.5</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>224</v>
@@ -4233,15 +4304,15 @@
         <v>3</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>222</v>
@@ -4268,15 +4339,15 @@
         <v>0.8</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>222</v>
@@ -4303,15 +4374,15 @@
         <v>0.8</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>222</v>
@@ -4338,15 +4409,15 @@
         <v>0.8</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>222</v>
@@ -4373,7 +4444,7 @@
         <v>0.8</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -4815,17 +4886,632 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="38"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D5" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="38">
+        <v>25</v>
+      </c>
+      <c r="D15" s="38">
+        <v>50</v>
+      </c>
+      <c r="F15" s="38">
+        <v>40</v>
+      </c>
+      <c r="G15" s="38">
+        <v>20</v>
+      </c>
+      <c r="I15" s="38">
+        <v>33</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0.67777699999999996</v>
+      </c>
+      <c r="L15" s="38">
+        <v>25</v>
+      </c>
+      <c r="N15" s="38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+      <c r="C16" s="38">
+        <f>MIN(MAX($C$15+$D$15-B16,0), $C$15)</f>
+        <v>25</v>
+      </c>
+      <c r="F16" s="38">
+        <f>MIN(MAX($F$15+$G$15-B16,0), $F$15)</f>
+        <v>40</v>
+      </c>
+      <c r="I16" s="38">
+        <f>MAX($I$15-B16*(1-$K$15),0)</f>
+        <v>33</v>
+      </c>
+      <c r="L16" s="38">
+        <f>MAX($L$15-B16*(1-$N$15),0)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="38">
+        <v>5</v>
+      </c>
+      <c r="C17" s="38">
+        <f t="shared" ref="C17:C39" si="0">MIN(MAX($C$15+$D$15-B17,0), $C$15)</f>
+        <v>25</v>
+      </c>
+      <c r="F17" s="38">
+        <f t="shared" ref="F17:F39" si="1">MIN(MAX($F$15+$G$15-B17,0), $F$15)</f>
+        <v>40</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" ref="I17:I39" si="2">MAX($I$15-B17*(1-$K$15),0)</f>
+        <v>31.388884999999998</v>
+      </c>
+      <c r="L17" s="38">
+        <f t="shared" ref="L17:L39" si="3">MAX($L$15-B17*(1-$N$15),0)</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="38">
+        <v>10</v>
+      </c>
+      <c r="C18" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="38">
+        <f t="shared" si="2"/>
+        <v>29.77777</v>
+      </c>
+      <c r="L18" s="38">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="38">
+        <v>15</v>
+      </c>
+      <c r="C19" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I19" s="38">
+        <f t="shared" si="2"/>
+        <v>28.166654999999999</v>
+      </c>
+      <c r="L19" s="38">
+        <f t="shared" si="3"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="38">
+        <v>20</v>
+      </c>
+      <c r="C20" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I20" s="38">
+        <f t="shared" si="2"/>
+        <v>26.555540000000001</v>
+      </c>
+      <c r="L20" s="38">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="38">
+        <v>25</v>
+      </c>
+      <c r="C21" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I21" s="38">
+        <f t="shared" si="2"/>
+        <v>24.944424999999999</v>
+      </c>
+      <c r="L21" s="38">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="38">
+        <v>30</v>
+      </c>
+      <c r="C22" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I22" s="38">
+        <f t="shared" si="2"/>
+        <v>23.333309999999997</v>
+      </c>
+      <c r="L22" s="38">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="38">
+        <v>35</v>
+      </c>
+      <c r="C23" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I23" s="38">
+        <f t="shared" si="2"/>
+        <v>21.722194999999999</v>
+      </c>
+      <c r="L23" s="38">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="38">
+        <v>40</v>
+      </c>
+      <c r="C24" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="38">
+        <f t="shared" si="2"/>
+        <v>20.111079999999998</v>
+      </c>
+      <c r="L24" s="38">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="38">
+        <v>45</v>
+      </c>
+      <c r="C25" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F25" s="38">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I25" s="38">
+        <f t="shared" si="2"/>
+        <v>18.499964999999996</v>
+      </c>
+      <c r="L25" s="38">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="38">
+        <v>50</v>
+      </c>
+      <c r="C26" s="38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="38">
+        <f t="shared" si="2"/>
+        <v>16.888849999999998</v>
+      </c>
+      <c r="L26" s="38">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="38">
+        <v>55</v>
+      </c>
+      <c r="C27" s="38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="38">
+        <f t="shared" si="2"/>
+        <v>15.277734999999996</v>
+      </c>
+      <c r="L27" s="38">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="38">
+        <v>60</v>
+      </c>
+      <c r="C28" s="38">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F28" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="38">
+        <f t="shared" si="2"/>
+        <v>13.666619999999998</v>
+      </c>
+      <c r="L28" s="38">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="38">
+        <v>65</v>
+      </c>
+      <c r="C29" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="38">
+        <f t="shared" si="2"/>
+        <v>12.055504999999997</v>
+      </c>
+      <c r="L29" s="38">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="38">
+        <v>70</v>
+      </c>
+      <c r="C30" s="38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="38">
+        <f t="shared" si="2"/>
+        <v>10.444389999999999</v>
+      </c>
+      <c r="L30" s="38">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="38">
+        <v>75</v>
+      </c>
+      <c r="C31" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="38">
+        <f t="shared" si="2"/>
+        <v>8.8332749999999969</v>
+      </c>
+      <c r="L31" s="38">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="38">
+        <v>80</v>
+      </c>
+      <c r="C32" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="38">
+        <f t="shared" si="2"/>
+        <v>7.2221599999999953</v>
+      </c>
+      <c r="L32" s="38">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="38">
+        <v>85</v>
+      </c>
+      <c r="C33" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="38">
+        <f t="shared" si="2"/>
+        <v>5.6110449999999972</v>
+      </c>
+      <c r="L33" s="38">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="38">
+        <v>90</v>
+      </c>
+      <c r="C34" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="38">
+        <f t="shared" si="2"/>
+        <v>3.9999299999999955</v>
+      </c>
+      <c r="L34" s="38">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="38">
+        <v>95</v>
+      </c>
+      <c r="C35" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="38">
+        <f t="shared" si="2"/>
+        <v>2.3888149999999975</v>
+      </c>
+      <c r="L35" s="38">
+        <f t="shared" si="3"/>
+        <v>15.500000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="38">
+        <v>100</v>
+      </c>
+      <c r="C36" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="38">
+        <f t="shared" si="2"/>
+        <v>0.77769999999999584</v>
+      </c>
+      <c r="L36" s="38">
+        <f t="shared" si="3"/>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="38">
+        <v>105</v>
+      </c>
+      <c r="C37" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="38">
+        <f t="shared" si="3"/>
+        <v>14.500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="38">
+        <v>110</v>
+      </c>
+      <c r="C38" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="38">
+        <f t="shared" si="3"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="38">
+        <v>115</v>
+      </c>
+      <c r="C39" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="38">
+        <f t="shared" si="3"/>
+        <v>13.500000000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4833,17 +5519,38 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B7:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Doc/方块江湖.xlsx
+++ b/Assets/Doc/方块江湖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本概念" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="378">
   <si>
     <t>迅疾</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1423,7 +1423,115 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>穿透伤害 PD = Min( (Damage + Pierce - Armor - PenetrateResist), Damage )</t>
+    <t>刺伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>割伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝伤忽视护甲百分比ArmorIgnorePecent = Ignore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总穿透 = Pierce，总伤害Damage，防具护甲 = Armor， 部位总生命值 = PartHealth，部位穿透阈值 = PenetrateResist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力加成一级属性公式 x = 0.5*[ sqrt(8 * Enegy + 1) - 1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼痛 = (原始伤害/部位生命倍率) * 疼痛倍率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>割伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D*0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pierce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性枚举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害穿透抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoundSize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgValue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1431,115 +1539,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刺伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>割伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透伤害 PD = Min( (Damage + Pierce - Armor - PenetrateResist), Damage)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钝伤忽视护甲百分比ArmorIgnorePecent = Ignore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总穿透 = Pierce，总伤害Damage，防具护甲 = Armor， 部位总生命值 = PartHealth，部位穿透阈值 = PenetrateResist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透伤害 PD =Damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>体外部位受伤 = 0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透伤害 PD = Max( (Damage -  Armor * (1 - Ignore) - PenetrateResist * (1 - Ignore) ), 0)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">体外部位受伤 = Min( Damage -  Armor * (1 - Ignore), PenetrateResist * (1 - Ignore) ) </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内力加成一级属性公式 x = 0.5*[ sqrt(8 * Enegy + 1) - 1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>疼痛 = (原始伤害/部位生命倍率) * 疼痛倍率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>割伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>钝伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pierce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D*2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D*0.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pierce</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignore</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性枚举</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害穿透抗性</t>
+    <t>穿透伤害 PD = Min( (Damage + Pierce - Armor - PenetrateResist * WoundSize), Damage )</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透伤害 PD = Min( (Damage + Pierce - Armor - PenetrateResist * WoundSize), Damage)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透伤害 PD = Max( (Damage -  Armor * (1 - Ignore) - PenetrateResist * (1 - Ignore) * WoundSize ), 0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">体外部位受伤 = Min( Damage -  Armor * (1 - Ignore), PenetrateResist * (1 - Ignore) * WoundSize ) </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1547,7 +1559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,6 +1653,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1810,7 +1829,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1904,6 +1923,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1921,7 +1943,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2683,7 +2705,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="33" t="s">
         <v>319</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -2697,7 +2719,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="27" t="s">
         <v>199</v>
       </c>
@@ -2709,7 +2731,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="32"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="27" t="s">
         <v>92</v>
       </c>
@@ -2721,7 +2743,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="27" t="s">
         <v>342</v>
       </c>
@@ -2733,7 +2755,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="33" t="s">
         <v>320</v>
       </c>
       <c r="C38" s="27" t="s">
@@ -2744,7 +2766,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B39" s="32"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="27" t="s">
         <v>94</v>
       </c>
@@ -2969,10 +2991,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -2984,13 +3006,13 @@
       <c r="F5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="24" t="s">
         <v>40</v>
       </c>
@@ -3000,11 +3022,11 @@
       <c r="F6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="24" t="s">
         <v>41</v>
       </c>
@@ -3014,11 +3036,11 @@
       <c r="F7" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="24" t="s">
         <v>26</v>
       </c>
@@ -3028,11 +3050,11 @@
       <c r="F8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="24" t="s">
         <v>57</v>
       </c>
@@ -3042,13 +3064,13 @@
       <c r="F9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="35"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="34" t="s">
         <v>193</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -3065,9 +3087,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="37" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -3076,38 +3098,38 @@
       <c r="F11" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="36"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -3116,37 +3138,37 @@
       <c r="F14" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="36"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="24" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="36"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="24" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="24" t="s">
         <v>133</v>
       </c>
@@ -3161,7 +3183,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="30" t="s">
         <v>240</v>
       </c>
@@ -3217,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12:C49"/>
+  <dimension ref="B12:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3273,12 +3295,12 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -3347,77 +3369,108 @@
     </row>
     <row r="40" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37" t="s">
-        <v>347</v>
+      <c r="B41" s="38" t="s">
+        <v>345</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="38"/>
+      <c r="C42" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="38" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37" t="s">
-        <v>348</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="1" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>313</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="37"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="1" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="38" t="s">
         <v>304</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="38"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="38"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="38"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="38"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="38"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="38"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="38"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="38"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B54:B55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3453,22 +3506,22 @@
       <c r="B2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
@@ -4886,634 +4939,733 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:N39"/>
+  <dimension ref="B4:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U9" sqref="Q5:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="38"/>
+    <col min="1" max="5" width="9" style="32"/>
+    <col min="6" max="6" width="10" style="32" customWidth="1"/>
+    <col min="7" max="10" width="9" style="32"/>
+    <col min="11" max="11" width="10.125" style="32" customWidth="1"/>
+    <col min="12" max="17" width="9" style="32"/>
+    <col min="18" max="18" width="14.375" style="32" customWidth="1"/>
+    <col min="19" max="19" width="14.875" style="32" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="32" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D5" s="38" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U4" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1</v>
+      </c>
+      <c r="S6" s="32">
+        <v>1</v>
+      </c>
+      <c r="U6" s="32">
+        <f>$U$4/R6</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="32">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="R7" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="S7" s="32">
+        <v>2</v>
+      </c>
+      <c r="U7" s="32">
+        <f t="shared" ref="U7:U9" si="0">$U$4/R7</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C8" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="S8" s="32">
+        <v>3</v>
+      </c>
+      <c r="T8" s="32">
+        <v>0.66666999999999998</v>
+      </c>
+      <c r="U8" s="32">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="R9" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="S9" s="32">
+        <v>1</v>
+      </c>
+      <c r="T9" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="U9" s="32">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C6" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="C14" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C7" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C8" s="38" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C9" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>366</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="38">
+      <c r="C15" s="32">
         <v>25</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="32">
         <v>50</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="32">
         <v>40</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="32">
         <v>20</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="32">
         <v>33</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="32">
         <v>0.67777699999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="32">
         <v>25</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="32">
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="38">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
         <v>0</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="32">
         <f>MIN(MAX($C$15+$D$15-B16,0), $C$15)</f>
         <v>25</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="32">
         <f>MIN(MAX($F$15+$G$15-B16,0), $F$15)</f>
         <v>40</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="32">
         <f>MAX($I$15-B16*(1-$K$15),0)</f>
         <v>33</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="32">
         <f>MAX($L$15-B16*(1-$N$15),0)</f>
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="38">
+      <c r="B17" s="32">
         <v>5</v>
       </c>
-      <c r="C17" s="38">
-        <f t="shared" ref="C17:C39" si="0">MIN(MAX($C$15+$D$15-B17,0), $C$15)</f>
+      <c r="C17" s="32">
+        <f t="shared" ref="C17:C39" si="1">MIN(MAX($C$15+$D$15-B17,0), $C$15)</f>
         <v>25</v>
       </c>
-      <c r="F17" s="38">
-        <f t="shared" ref="F17:F39" si="1">MIN(MAX($F$15+$G$15-B17,0), $F$15)</f>
+      <c r="F17" s="32">
+        <f t="shared" ref="F17:F39" si="2">MIN(MAX($F$15+$G$15-B17,0), $F$15)</f>
         <v>40</v>
       </c>
-      <c r="I17" s="38">
-        <f t="shared" ref="I17:I39" si="2">MAX($I$15-B17*(1-$K$15),0)</f>
+      <c r="I17" s="32">
+        <f t="shared" ref="I17:I39" si="3">MAX($I$15-B17*(1-$K$15),0)</f>
         <v>31.388884999999998</v>
       </c>
-      <c r="L17" s="38">
-        <f t="shared" ref="L17:L39" si="3">MAX($L$15-B17*(1-$N$15),0)</f>
+      <c r="L17" s="32">
+        <f t="shared" ref="L17:L39" si="4">MAX($L$15-B17*(1-$N$15),0)</f>
         <v>24.5</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="38">
+      <c r="B18" s="32">
         <v>10</v>
       </c>
-      <c r="C18" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I18" s="38">
-        <f t="shared" si="2"/>
-        <v>29.77777</v>
-      </c>
-      <c r="L18" s="38">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="38">
-        <v>15</v>
-      </c>
-      <c r="C19" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I19" s="38">
-        <f t="shared" si="2"/>
-        <v>28.166654999999999</v>
-      </c>
-      <c r="L19" s="38">
-        <f t="shared" si="3"/>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="38">
-        <v>20</v>
-      </c>
-      <c r="C20" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I20" s="38">
-        <f t="shared" si="2"/>
-        <v>26.555540000000001</v>
-      </c>
-      <c r="L20" s="38">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="38">
-        <v>25</v>
-      </c>
-      <c r="C21" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F21" s="38">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="I21" s="38">
-        <f t="shared" si="2"/>
-        <v>24.944424999999999</v>
-      </c>
-      <c r="L21" s="38">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="38">
-        <v>30</v>
-      </c>
-      <c r="C22" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F22" s="38">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I22" s="38">
-        <f t="shared" si="2"/>
-        <v>23.333309999999997</v>
-      </c>
-      <c r="L22" s="38">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="38">
-        <v>35</v>
-      </c>
-      <c r="C23" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F23" s="38">
+      <c r="C18" s="32">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I23" s="38">
+      <c r="F18" s="32">
         <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="3"/>
+        <v>29.77777</v>
+      </c>
+      <c r="L18" s="32">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="32">
+        <v>15</v>
+      </c>
+      <c r="C19" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="32">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="3"/>
+        <v>28.166654999999999</v>
+      </c>
+      <c r="L19" s="32">
+        <f t="shared" si="4"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="32">
+        <v>20</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" si="3"/>
+        <v>26.555540000000001</v>
+      </c>
+      <c r="L20" s="32">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="39">
+        <v>25</v>
+      </c>
+      <c r="C21" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I21" s="39">
+        <f t="shared" si="3"/>
+        <v>24.944424999999999</v>
+      </c>
+      <c r="L21" s="32">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="32">
+        <v>30</v>
+      </c>
+      <c r="C22" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="I22" s="32">
+        <f t="shared" si="3"/>
+        <v>23.333309999999997</v>
+      </c>
+      <c r="L22" s="32">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="39">
+        <v>35</v>
+      </c>
+      <c r="C23" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I23" s="32">
+        <f t="shared" si="3"/>
         <v>21.722194999999999</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="32">
+        <f t="shared" si="4"/>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="32">
+        <v>40</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F24" s="32">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="32">
         <f t="shared" si="3"/>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="38">
-        <v>40</v>
-      </c>
-      <c r="C24" s="38">
-        <f t="shared" si="0"/>
+        <v>20.111079999999998</v>
+      </c>
+      <c r="L24" s="32">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="32">
+        <v>45</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F25" s="32">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I25" s="32">
+        <f t="shared" si="3"/>
+        <v>18.499964999999996</v>
+      </c>
+      <c r="L25" s="32">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="32">
+        <v>50</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F26" s="32">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I26" s="32">
+        <f t="shared" si="3"/>
+        <v>16.888849999999998</v>
+      </c>
+      <c r="L26" s="32">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="32">
+        <v>55</v>
+      </c>
+      <c r="C27" s="32">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I24" s="38">
+      <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>20.111079999999998</v>
-      </c>
-      <c r="L24" s="38">
+        <v>5</v>
+      </c>
+      <c r="I27" s="32">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="38">
-        <v>45</v>
-      </c>
-      <c r="C25" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F25" s="38">
+        <v>15.277734999999996</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="4"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="32">
+        <v>60</v>
+      </c>
+      <c r="C28" s="32">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I25" s="38">
+      <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>18.499964999999996</v>
-      </c>
-      <c r="L25" s="38">
+        <v>0</v>
+      </c>
+      <c r="I28" s="32">
         <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="38">
-        <v>50</v>
-      </c>
-      <c r="C26" s="38">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F26" s="38">
+        <v>13.666619999999998</v>
+      </c>
+      <c r="L28" s="32">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="32">
+        <v>65</v>
+      </c>
+      <c r="C29" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I26" s="38">
+      <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>16.888849999999998</v>
-      </c>
-      <c r="L26" s="38">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="38">
-        <v>55</v>
-      </c>
-      <c r="C27" s="38">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F27" s="38">
+        <v>12.055504999999997</v>
+      </c>
+      <c r="L29" s="32">
+        <f t="shared" si="4"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="32">
+        <v>70</v>
+      </c>
+      <c r="C30" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I27" s="38">
+      <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>15.277734999999996</v>
-      </c>
-      <c r="L27" s="38">
+        <v>0</v>
+      </c>
+      <c r="I30" s="32">
         <f t="shared" si="3"/>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="38">
-        <v>60</v>
-      </c>
-      <c r="C28" s="38">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F28" s="38">
+        <v>10.444389999999999</v>
+      </c>
+      <c r="L30" s="32">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="32">
+        <v>75</v>
+      </c>
+      <c r="C31" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="38">
+      <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>13.666619999999998</v>
-      </c>
-      <c r="L28" s="38">
+        <v>0</v>
+      </c>
+      <c r="I31" s="32">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="38">
-        <v>65</v>
-      </c>
-      <c r="C29" s="38">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F29" s="38">
+        <v>8.8332749999999969</v>
+      </c>
+      <c r="L31" s="32">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="32">
+        <v>80</v>
+      </c>
+      <c r="C32" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="38">
+      <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>12.055504999999997</v>
-      </c>
-      <c r="L29" s="38">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32">
         <f t="shared" si="3"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="38">
-        <v>70</v>
-      </c>
-      <c r="C30" s="38">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F30" s="38">
+        <v>7.2221599999999953</v>
+      </c>
+      <c r="L32" s="32">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="32">
+        <v>85</v>
+      </c>
+      <c r="C33" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="38">
+      <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>10.444389999999999</v>
-      </c>
-      <c r="L30" s="38">
+        <v>0</v>
+      </c>
+      <c r="I33" s="32">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="38">
-        <v>75</v>
-      </c>
-      <c r="C31" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="38">
+        <v>5.6110449999999972</v>
+      </c>
+      <c r="L33" s="32">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="32">
+        <v>90</v>
+      </c>
+      <c r="C34" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="38">
+      <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>8.8332749999999969</v>
-      </c>
-      <c r="L31" s="38">
+        <v>0</v>
+      </c>
+      <c r="I34" s="32">
         <f t="shared" si="3"/>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="38">
-        <v>80</v>
-      </c>
-      <c r="C32" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="38">
+        <v>3.9999299999999955</v>
+      </c>
+      <c r="L34" s="32">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="32">
+        <v>95</v>
+      </c>
+      <c r="C35" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="38">
+      <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>7.2221599999999953</v>
-      </c>
-      <c r="L32" s="38">
+        <v>0</v>
+      </c>
+      <c r="I35" s="32">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="38">
-        <v>85</v>
-      </c>
-      <c r="C33" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="38">
+        <v>2.3888149999999975</v>
+      </c>
+      <c r="L35" s="32">
+        <f t="shared" si="4"/>
+        <v>15.500000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="32">
+        <v>100</v>
+      </c>
+      <c r="C36" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="38">
+      <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>5.6110449999999972</v>
-      </c>
-      <c r="L33" s="38">
+        <v>0</v>
+      </c>
+      <c r="I36" s="32">
         <f t="shared" si="3"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="38">
-        <v>90</v>
-      </c>
-      <c r="C34" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="38">
+        <v>0.77769999999999584</v>
+      </c>
+      <c r="L36" s="32">
+        <f t="shared" si="4"/>
+        <v>15.000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="32">
+        <v>105</v>
+      </c>
+      <c r="C37" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="38">
+      <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>3.9999299999999955</v>
-      </c>
-      <c r="L34" s="38">
+        <v>0</v>
+      </c>
+      <c r="I37" s="32">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="38">
-        <v>95</v>
-      </c>
-      <c r="C35" s="38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="38">
+      <c r="L37" s="32">
+        <f t="shared" si="4"/>
+        <v>14.500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="32">
+        <v>110</v>
+      </c>
+      <c r="C38" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="38">
+      <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>2.3888149999999975</v>
-      </c>
-      <c r="L35" s="38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="32">
         <f t="shared" si="3"/>
-        <v>15.500000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="38">
-        <v>100</v>
-      </c>
-      <c r="C36" s="38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="38">
+      <c r="L38" s="32">
+        <f t="shared" si="4"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="32">
+        <v>115</v>
+      </c>
+      <c r="C39" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="38">
-        <f t="shared" si="2"/>
-        <v>0.77769999999999584</v>
-      </c>
-      <c r="L36" s="38">
-        <f t="shared" si="3"/>
-        <v>15.000000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="38">
-        <v>105</v>
-      </c>
-      <c r="C37" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="38">
+      <c r="F39" s="32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L37" s="38">
+      <c r="I39" s="32">
         <f t="shared" si="3"/>
-        <v>14.500000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="38">
-        <v>110</v>
-      </c>
-      <c r="C38" s="38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="38">
-        <f t="shared" si="3"/>
-        <v>14.000000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="38">
-        <v>115</v>
-      </c>
-      <c r="C39" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="38">
-        <f t="shared" si="3"/>
+      <c r="L39" s="32">
+        <f t="shared" si="4"/>
         <v>13.500000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5534,20 +5686,20 @@
   <sheetData>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Doc/方块江湖.xlsx
+++ b/Assets/Doc/方块江湖.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本概念" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="394">
   <si>
     <t>迅疾</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>迅疾、精妙、力道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>招式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1026,10 +1022,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>内功、绝技、装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>装备、所运格挡功法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1552,6 +1544,78 @@
   </si>
   <si>
     <t xml:space="preserve">体外部位受伤 = Min( Damage -  Armor * (1 - Ignore), PenetrateResist * (1 - Ignore) * WoundSize ) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝伤穿透抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内伤穿透抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃伤穿透抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响护甲发挥效率（概率+效率）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少力道，从而降低伤害（破甲后才生效）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少伤害和穿透</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对刃伤的百分比减穿透</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对钝伤的百分比减穿透</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对内伤的百分比减穿透</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低躲闪、迅疾、速度等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功、绝技、装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击功法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪率 = 躲闪 / (迅疾 + 躲闪)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪 = 灵巧 + 功法躲闪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1559,7 +1623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,6 +1721,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1829,7 +1900,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1925,6 +1996,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1943,7 +2017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2409,10 +2483,10 @@
   <dimension ref="B1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2457,343 +2531,343 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="33" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>235</v>
+        <v>390</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="33" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>88</v>
-      </c>
       <c r="E20" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>327</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="33" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>336</v>
-      </c>
       <c r="E27" s="27" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>84</v>
-      </c>
       <c r="E28" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="33" x14ac:dyDescent="0.2">
       <c r="C31" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D31" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>204</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="27" t="s">
+    </row>
+    <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="34"/>
+      <c r="C35" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B34" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-      <c r="C35" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="27" t="s">
+      <c r="E36" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="B37" s="34"/>
+      <c r="C37" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="33"/>
-      <c r="C36" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B37" s="33"/>
-      <c r="C37" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="27" t="s">
+    </row>
+    <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B39" s="33"/>
-      <c r="C39" s="27" t="s">
-        <v>94</v>
-      </c>
       <c r="D39" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -2848,21 +2922,21 @@
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="27" t="s">
-        <v>19</v>
+        <v>391</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D61" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>18</v>
@@ -2870,73 +2944,73 @@
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>78</v>
-      </c>
       <c r="E65" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D66" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C69" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C70" s="27" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C71" s="27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C72" s="27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2972,252 +3046,252 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="E8" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="2:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="C10" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="24" t="s">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="2:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="37"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="37"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="37"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="24" t="s">
+      <c r="E18" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="F18" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
-      <c r="C18" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3239,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B12:C62"/>
+  <dimension ref="B4:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3255,39 +3329,49 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3295,12 +3379,12 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -3332,22 +3416,22 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -3355,7 +3439,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -3369,97 +3453,97 @@
     </row>
     <row r="40" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="39"/>
+      <c r="C42" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="39"/>
+      <c r="C44" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="38"/>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="46" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="39"/>
+      <c r="C46" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="39"/>
+      <c r="C47" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="38"/>
-      <c r="C44" s="1" t="s">
+    <row r="48" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="38"/>
-      <c r="C46" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="38"/>
-      <c r="C47" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
     <row r="49" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="38"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="38"/>
+      <c r="B54" s="39"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="38"/>
+      <c r="B55" s="39"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="38"/>
+      <c r="B56" s="39"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="38"/>
+      <c r="B57" s="39"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="38"/>
+      <c r="B58" s="39"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="38"/>
+      <c r="B59" s="39"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="38"/>
+      <c r="B60" s="39"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
+      <c r="B61" s="39"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="38"/>
+      <c r="B62" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3504,75 +3588,75 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E3" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E3" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="38"/>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7">
         <v>0.5</v>
@@ -3599,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -3607,13 +3691,13 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="7">
         <v>0.4</v>
@@ -3639,18 +3723,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="7">
         <v>0.1</v>
@@ -3673,18 +3757,18 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" s="7">
         <v>0.03</v>
@@ -3707,7 +3791,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -3715,13 +3799,13 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E9" s="7">
         <v>0.04</v>
@@ -3744,7 +3828,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N9" s="7">
         <v>0.5</v>
@@ -3752,13 +3836,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E10" s="7">
         <v>0.04</v>
@@ -3781,7 +3865,7 @@
         <v>1.5</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N10" s="7">
         <v>0.5</v>
@@ -3789,13 +3873,13 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="7">
         <v>0.46</v>
@@ -3822,18 +3906,18 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E12" s="7">
         <v>0.03</v>
@@ -3856,7 +3940,7 @@
         <v>1.5</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
         <v>0.5</v>
@@ -3864,13 +3948,13 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E13" s="7">
         <v>0.03</v>
@@ -3893,7 +3977,7 @@
         <v>1.5</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N13" s="7">
         <v>0.5</v>
@@ -3901,13 +3985,13 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E14" s="7">
         <v>0.05</v>
@@ -3930,7 +4014,7 @@
         <v>1.5</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -3938,13 +4022,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E15" s="7">
         <v>0.06</v>
@@ -3967,18 +4051,18 @@
         <v>1.5</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="7">
         <v>0.08</v>
@@ -4001,7 +4085,7 @@
         <v>1.5</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -4009,13 +4093,13 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="7">
         <v>0.06</v>
@@ -4038,18 +4122,18 @@
         <v>3</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="7">
         <v>0.06</v>
@@ -4079,7 +4163,7 @@
         <v>1.2</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -4087,13 +4171,13 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E19" s="7">
         <v>0.17</v>
@@ -4116,18 +4200,18 @@
         <v>1.5</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4150,7 +4234,7 @@
         <v>1.5</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N20" s="7">
         <v>1</v>
@@ -4158,13 +4242,13 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4187,18 +4271,18 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E22" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4221,18 +4305,18 @@
         <v>1.5</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4255,18 +4339,18 @@
         <v>1.5</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E24" s="7">
         <v>0.1</v>
@@ -4289,18 +4373,18 @@
         <v>1.5</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25" s="7">
         <v>0.15</v>
@@ -4323,18 +4407,18 @@
         <v>1.5</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E26" s="7">
         <v>0.8</v>
@@ -4357,18 +4441,18 @@
         <v>3</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="7">
         <v>0.1</v>
@@ -4392,18 +4476,18 @@
         <v>0.8</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="7">
         <v>0.1</v>
@@ -4427,18 +4511,18 @@
         <v>0.8</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="7">
         <v>0.12</v>
@@ -4462,18 +4546,18 @@
         <v>0.8</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="7">
         <v>0.12</v>
@@ -4497,7 +4581,7 @@
         <v>0.8</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4534,26 +4618,26 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7">
         <v>3.9E-2</v>
@@ -4562,7 +4646,7 @@
     <row r="6" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" s="7">
         <v>0.02</v>
@@ -4572,7 +4656,7 @@
     <row r="7" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="7">
         <v>0.03</v>
@@ -4582,7 +4666,7 @@
     <row r="8" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7">
         <v>0.03</v>
@@ -4592,7 +4676,7 @@
     <row r="9" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7">
         <v>1.7999999999999999E-2</v>
@@ -4602,7 +4686,7 @@
     <row r="10" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7">
         <v>1.7999999999999999E-2</v>
@@ -4612,7 +4696,7 @@
     <row r="11" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
         <v>2.5000000000000001E-2</v>
@@ -4622,7 +4706,7 @@
     <row r="12" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="7">
         <v>0.03</v>
@@ -4632,7 +4716,7 @@
     <row r="13" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7">
         <v>0.04</v>
@@ -4641,7 +4725,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4650,7 +4734,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="7">
         <v>0.18</v>
@@ -4659,7 +4743,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F16" s="6">
         <v>0.8</v>
@@ -4667,7 +4751,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4676,7 +4760,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4685,7 +4769,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E19" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4694,7 +4778,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4703,7 +4787,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="7">
         <v>0.1</v>
@@ -4712,7 +4796,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="7">
         <v>0.15</v>
@@ -4721,7 +4805,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D23" s="7">
         <v>0.11</v>
@@ -4729,7 +4813,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="7">
         <v>0.11</v>
@@ -4737,7 +4821,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="7">
         <v>0.13</v>
@@ -4745,7 +4829,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="7">
         <v>0.13</v>
@@ -4782,150 +4866,150 @@
   <sheetData>
     <row r="7" spans="3:5" ht="21" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="E16" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="E17" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="E18" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +5026,7 @@
   <dimension ref="B4:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="Q5:U9"/>
+      <selection activeCell="P3" sqref="P3:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4959,111 +5043,118 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U4" s="32">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D5" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="R5" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="S5" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="U5" s="32" t="s">
+      <c r="T5" s="40" t="s">
         <v>369</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C6" s="32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F6" s="32">
         <v>2</v>
       </c>
-      <c r="Q6" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="R6" s="32">
+      <c r="Q6" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="R6" s="40">
         <v>1</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="40">
         <v>1</v>
       </c>
-      <c r="U6" s="32">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40">
         <f>$U$4/R6</f>
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C7" s="32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F7" s="32">
         <v>2</v>
       </c>
-      <c r="Q7" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="R7" s="32">
+      <c r="Q7" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="R7" s="40">
         <v>1.5</v>
       </c>
-      <c r="S7" s="32">
+      <c r="S7" s="40">
         <v>2</v>
       </c>
-      <c r="U7" s="32">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40">
         <f t="shared" ref="U7:U9" si="0">$U$4/R7</f>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C8" s="32" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E8" s="32">
         <v>0.5</v>
       </c>
       <c r="F8" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>301</v>
+      </c>
+      <c r="R8" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="S8" s="40">
         <v>3</v>
       </c>
-      <c r="Q8" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="R8" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="S8" s="32">
-        <v>3</v>
-      </c>
-      <c r="T8" s="32">
+      <c r="T8" s="40">
         <v>0.66666999999999998</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="40">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C9" s="32" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9" s="32">
         <v>1</v>
@@ -5071,67 +5162,67 @@
       <c r="F9" s="32">
         <v>4</v>
       </c>
-      <c r="Q9" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="R9" s="32">
+      <c r="Q9" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="R9" s="40">
         <v>1.5</v>
       </c>
-      <c r="S9" s="32">
+      <c r="S9" s="40">
         <v>1</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="40">
         <v>0.9</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="40">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C14" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>361</v>
-      </c>
       <c r="F14" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>361</v>
-      </c>
       <c r="I14" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>361</v>
-      </c>
       <c r="L14" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="N14" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C15" s="32">
         <v>25</v>
@@ -5264,7 +5355,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="39">
+      <c r="B21" s="33">
         <v>25</v>
       </c>
       <c r="C21" s="32">
@@ -5275,7 +5366,7 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="33">
         <f t="shared" si="3"/>
         <v>24.944424999999999</v>
       </c>
@@ -5306,14 +5397,14 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="39">
+      <c r="B23" s="33">
         <v>35</v>
       </c>
       <c r="C23" s="32">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="33">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -5671,35 +5762,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:C9"/>
+  <dimension ref="B7:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>367</v>
+      <c r="C11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Doc/方块江湖.xlsx
+++ b/Assets/Doc/方块江湖.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本概念" sheetId="1" r:id="rId1"/>
-    <sheet name="身体部位表" sheetId="3" r:id="rId2"/>
-    <sheet name="公式" sheetId="2" r:id="rId3"/>
-    <sheet name="Body Parts Complete" sheetId="10" r:id="rId4"/>
-    <sheet name="Body Parts" sheetId="9" r:id="rId5"/>
-    <sheet name="Health总结（rimworld）" sheetId="8" r:id="rId6"/>
-    <sheet name="伤害类型" sheetId="4" r:id="rId7"/>
-    <sheet name="装备_防具" sheetId="6" r:id="rId8"/>
-    <sheet name="Health (4)" sheetId="7" r:id="rId9"/>
+    <sheet name="功法装备系统" sheetId="12" r:id="rId2"/>
+    <sheet name="功法属性分配" sheetId="11" r:id="rId3"/>
+    <sheet name="身体部位表" sheetId="3" r:id="rId4"/>
+    <sheet name="公式" sheetId="2" r:id="rId5"/>
+    <sheet name="Body Parts Complete" sheetId="10" r:id="rId6"/>
+    <sheet name="Body Parts" sheetId="9" r:id="rId7"/>
+    <sheet name="Health总结（rimworld）" sheetId="8" r:id="rId8"/>
+    <sheet name="伤害类型" sheetId="4" r:id="rId9"/>
+    <sheet name="装备_防具" sheetId="6" r:id="rId10"/>
+    <sheet name="Health (4)" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'Body Parts Complete'!$B$4:$J$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5">'Body Parts Complete'!$B$4:$J$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,11 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="394">
-  <si>
-    <t>迅疾</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="415">
   <si>
     <t>拳掌</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -88,10 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>放大伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>二级属性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -116,18 +110,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>力道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>是否造成伤害相关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拆招</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>区域</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -284,14 +270,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>命中部位偏移、降低命中率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>与命中部位和命中率相关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>疼痛</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,18 +302,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>功法、内力加成、装备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>精妙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆解对方招式，不受到伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>武器</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,10 +322,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卸力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>内力活化速度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -389,10 +351,6 @@
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>减小伤害；对抗力道；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -842,14 +800,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>格挡住对方的招式，通过卸力减少受到的伤害；对抗迅疾和精妙；格挡住时，卸力发挥效率变为2倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>所运身法、灵巧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1611,11 +1561,153 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>与命中率相关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精妙Cunning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡住对方的招式，通过卸力减少受到的伤害；对抗迅疾和精妙；格挡住时，卸力发挥效率变为2倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪
+Dodge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解对方招式，不受到伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中部位偏移、降低命中率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆招
+Crack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡
+Block</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减小伤害；对抗力道；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功法、内力加成、装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力道
+Power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>躲闪率 = 躲闪 / (迅疾 + 躲闪)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>躲闪 = 灵巧 + 功法躲闪</t>
+    <t>躲闪 = 灵巧 + 身法躲闪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆招率= 拆招 / (精妙 + 拆招)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸力
+Unloading</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆☆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>☆☆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅疾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅疾
+Quickness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质+造诣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据该门系的资质+造诣的高低决定装备该门功法装备槽的数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功、身法和绝技</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力点数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内力属性加成效率（力量、体质、灵巧、根骨）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内息活化速度、内息回复速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动疗伤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1733,7 +1825,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,6 +1835,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9933"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,7 +2028,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2000,6 +2128,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2017,8 +2151,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2194,6 +2346,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFCC00FF"/>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2483,10 +2644,10 @@
   <dimension ref="B1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:E7"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2656,7 @@
     <col min="3" max="3" width="14.375" style="27" customWidth="1"/>
     <col min="4" max="4" width="36.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="27" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="27" customWidth="1"/>
     <col min="8" max="8" width="28.25" style="27" customWidth="1"/>
     <col min="9" max="16384" width="9" style="27"/>
@@ -2506,511 +2667,511 @@
     <row r="3" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="3:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
-        <v>168</v>
+        <v>382</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>64</v>
+        <v>379</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="33" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="33" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>90</v>
+        <v>387</v>
       </c>
       <c r="E9" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>21</v>
-      </c>
       <c r="G9" s="27" t="s">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>73</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="3:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="27" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="33" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="27" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="33" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>333</v>
-      </c>
       <c r="E26" s="27" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="27" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" s="27" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="33" x14ac:dyDescent="0.2">
       <c r="C31" s="27" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="27" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="36"/>
+      <c r="C35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="36"/>
+      <c r="C36" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.2">
+      <c r="B37" s="36"/>
+      <c r="C37" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="C34" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="34"/>
-      <c r="C35" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
-      <c r="C36" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
-      <c r="C37" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>330</v>
-      </c>
       <c r="E37" s="27" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="34" t="s">
-        <v>318</v>
+      <c r="B38" s="36" t="s">
+        <v>305</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="33" x14ac:dyDescent="0.2">
-      <c r="B39" s="34"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C42" s="27" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" s="27" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C46" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C47" s="27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="27" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D61" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D66" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C69" s="27" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C70" s="27" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C71" s="27" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="33" x14ac:dyDescent="0.2">
       <c r="C72" s="27" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3024,12 +3185,458 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="34" customWidth="1"/>
+    <col min="2" max="4" width="3.375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11" style="34" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F3" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F4" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F7" s="34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E8" s="34">
+        <v>50</v>
+      </c>
+      <c r="F8" s="34">
+        <v>50</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34">
+        <v>10</v>
+      </c>
+      <c r="E9" s="34">
+        <f>E8+D9</f>
+        <v>60</v>
+      </c>
+      <c r="F9" s="34">
+        <v>60</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="34">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
+        <v>15</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" ref="E10:F15" si="0">E9+D10</f>
+        <v>75</v>
+      </c>
+      <c r="F10" s="34">
+        <v>75</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+      <c r="D11" s="34">
+        <v>20</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="F11" s="34">
+        <v>95</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="C12" s="34">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34">
+        <v>25</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="34">
+        <v>120</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
+        <v>30</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F13" s="34">
+        <v>150</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="C14" s="34">
+        <v>6</v>
+      </c>
+      <c r="D14" s="34">
+        <v>35</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="F14" s="34">
+        <v>185</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="48"/>
+      <c r="C15" s="34">
+        <v>7</v>
+      </c>
+      <c r="D15" s="34">
+        <v>40</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F15" s="34">
+        <v>225</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="3.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E5" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -3046,252 +3653,252 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="2:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="40"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="40"/>
+      <c r="C18" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="36"/>
-    </row>
-    <row r="7" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="2:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="38"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="36"/>
-    </row>
-    <row r="16" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="38"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
-      <c r="C18" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="24" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3311,12 +3918,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3331,47 +3938,52 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -3379,12 +3991,12 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -3416,22 +4028,22 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="31" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="31" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" s="31" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" s="31" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -3439,7 +4051,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="31" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -3453,97 +4065,97 @@
     </row>
     <row r="40" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="39" t="s">
-        <v>343</v>
+      <c r="B41" s="41" t="s">
+        <v>330</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="39"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="1" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="39" t="s">
-        <v>344</v>
+      <c r="B43" s="41" t="s">
+        <v>331</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="39"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="1" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="39" t="s">
-        <v>311</v>
+      <c r="B45" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="39"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="39"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="39" t="s">
-        <v>302</v>
+      <c r="B48" s="41" t="s">
+        <v>289</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="39"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="1" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="39"/>
+      <c r="B54" s="41"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="39"/>
+      <c r="B55" s="41"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="39"/>
+      <c r="B56" s="41"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="39"/>
+      <c r="B57" s="41"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="39"/>
+      <c r="B58" s="41"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="39"/>
+      <c r="B59" s="41"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="39"/>
+      <c r="B60" s="41"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="39"/>
+      <c r="B61" s="41"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="39"/>
+      <c r="B62" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3562,7 +4174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N30"/>
   <sheetViews>
@@ -3588,75 +4200,75 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E3" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="39"/>
+      <c r="E3" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E5" s="7">
         <v>0.5</v>
@@ -3683,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -3691,13 +4303,13 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E6" s="7">
         <v>0.4</v>
@@ -3723,18 +4335,18 @@
         <v>1</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E7" s="7">
         <v>0.1</v>
@@ -3757,18 +4369,18 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E8" s="7">
         <v>0.03</v>
@@ -3791,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -3799,13 +4411,13 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E9" s="7">
         <v>0.04</v>
@@ -3828,7 +4440,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N9" s="7">
         <v>0.5</v>
@@ -3836,13 +4448,13 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E10" s="7">
         <v>0.04</v>
@@ -3865,7 +4477,7 @@
         <v>1.5</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N10" s="7">
         <v>0.5</v>
@@ -3873,13 +4485,13 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E11" s="7">
         <v>0.46</v>
@@ -3906,18 +4518,18 @@
         <v>1</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E12" s="7">
         <v>0.03</v>
@@ -3940,7 +4552,7 @@
         <v>1.5</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N12" s="7">
         <v>0.5</v>
@@ -3948,13 +4560,13 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E13" s="7">
         <v>0.03</v>
@@ -3977,7 +4589,7 @@
         <v>1.5</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N13" s="7">
         <v>0.5</v>
@@ -3985,13 +4597,13 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E14" s="7">
         <v>0.05</v>
@@ -4014,7 +4626,7 @@
         <v>1.5</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
@@ -4022,13 +4634,13 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E15" s="7">
         <v>0.06</v>
@@ -4051,18 +4663,18 @@
         <v>1.5</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E16" s="7">
         <v>0.08</v>
@@ -4085,7 +4697,7 @@
         <v>1.5</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7">
         <v>1</v>
@@ -4093,13 +4705,13 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E17" s="7">
         <v>0.06</v>
@@ -4122,18 +4734,18 @@
         <v>3</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E18" s="7">
         <v>0.06</v>
@@ -4163,7 +4775,7 @@
         <v>1.2</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="N18" s="7">
         <v>1</v>
@@ -4171,13 +4783,13 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E19" s="7">
         <v>0.17</v>
@@ -4200,18 +4812,18 @@
         <v>1.5</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E20" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4234,7 +4846,7 @@
         <v>1.5</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="N20" s="7">
         <v>1</v>
@@ -4242,13 +4854,13 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E21" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4271,18 +4883,18 @@
         <v>1.5</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E22" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4305,18 +4917,18 @@
         <v>1.5</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E23" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4339,18 +4951,18 @@
         <v>1.5</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E24" s="7">
         <v>0.1</v>
@@ -4373,18 +4985,18 @@
         <v>1.5</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E25" s="7">
         <v>0.15</v>
@@ -4407,18 +5019,18 @@
         <v>1.5</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E26" s="7">
         <v>0.8</v>
@@ -4441,18 +5053,18 @@
         <v>3</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E27" s="7">
         <v>0.1</v>
@@ -4476,18 +5088,18 @@
         <v>0.8</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E28" s="7">
         <v>0.1</v>
@@ -4511,18 +5123,18 @@
         <v>0.8</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E29" s="7">
         <v>0.12</v>
@@ -4546,18 +5158,18 @@
         <v>0.8</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E30" s="7">
         <v>0.12</v>
@@ -4581,7 +5193,7 @@
         <v>0.8</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4597,7 +5209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G27"/>
   <sheetViews>
@@ -4618,26 +5230,26 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D5" s="7">
         <v>3.9E-2</v>
@@ -4646,7 +5258,7 @@
     <row r="6" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
         <v>0.02</v>
@@ -4656,7 +5268,7 @@
     <row r="7" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D7" s="7">
         <v>0.03</v>
@@ -4666,7 +5278,7 @@
     <row r="8" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D8" s="7">
         <v>0.03</v>
@@ -4676,7 +5288,7 @@
     <row r="9" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7">
         <v>1.7999999999999999E-2</v>
@@ -4686,7 +5298,7 @@
     <row r="10" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D10" s="7">
         <v>1.7999999999999999E-2</v>
@@ -4696,7 +5308,7 @@
     <row r="11" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
         <v>2.5000000000000001E-2</v>
@@ -4706,7 +5318,7 @@
     <row r="12" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D12" s="7">
         <v>0.03</v>
@@ -4716,7 +5328,7 @@
     <row r="13" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D13" s="7">
         <v>0.04</v>
@@ -4725,7 +5337,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4734,7 +5346,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E15" s="7">
         <v>0.18</v>
@@ -4743,7 +5355,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F16" s="6">
         <v>0.8</v>
@@ -4751,7 +5363,7 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4760,7 +5372,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E18" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4769,7 +5381,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E19" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4778,7 +5390,7 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E20" s="7">
         <v>7.0000000000000007E-2</v>
@@ -4787,7 +5399,7 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E21" s="7">
         <v>0.1</v>
@@ -4796,7 +5408,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E22" s="7">
         <v>0.15</v>
@@ -4805,7 +5417,7 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D23" s="7">
         <v>0.11</v>
@@ -4813,7 +5425,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D24" s="7">
         <v>0.11</v>
@@ -4821,7 +5433,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D25" s="7">
         <v>0.13</v>
@@ -4829,7 +5441,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D26" s="7">
         <v>0.13</v>
@@ -4847,7 +5459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:E21"/>
   <sheetViews>
@@ -4866,150 +5478,150 @@
   <sheetData>
     <row r="7" spans="3:5" ht="21" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="13" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="13" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5021,12 +5633,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:V10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5043,91 +5655,91 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D5" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="S5" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="T5" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>367</v>
+      <c r="U5" s="35" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C6" s="32" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F6" s="32">
         <v>2</v>
       </c>
-      <c r="Q6" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="R6" s="40">
+      <c r="Q6" s="35" t="s">
+        <v>336</v>
+      </c>
+      <c r="R6" s="35">
         <v>1</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="35">
         <v>1</v>
       </c>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40">
+      <c r="T6" s="35"/>
+      <c r="U6" s="35">
         <f>$U$4/R6</f>
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C7" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F7" s="32">
         <v>2</v>
       </c>
-      <c r="Q7" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="R7" s="40">
+      <c r="Q7" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="R7" s="35">
         <v>1.5</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="35">
         <v>2</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40">
+      <c r="T7" s="35"/>
+      <c r="U7" s="35">
         <f t="shared" ref="U7:U9" si="0">$U$4/R7</f>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C8" s="32" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E8" s="32">
         <v>0.5</v>
@@ -5135,26 +5747,26 @@
       <c r="F8" s="32">
         <v>2.5</v>
       </c>
-      <c r="Q8" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="R8" s="40">
+      <c r="Q8" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="R8" s="35">
         <v>1.5</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="35">
         <v>3</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="35">
         <v>0.66666999999999998</v>
       </c>
-      <c r="U8" s="40">
+      <c r="U8" s="35">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C9" s="32" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="E9" s="32">
         <v>1</v>
@@ -5162,67 +5774,67 @@
       <c r="F9" s="32">
         <v>4</v>
       </c>
-      <c r="Q9" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="R9" s="40">
+      <c r="Q9" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="R9" s="35">
         <v>1.5</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="35">
         <v>1</v>
       </c>
-      <c r="T9" s="40">
+      <c r="T9" s="35">
         <v>0.9</v>
       </c>
-      <c r="U9" s="40">
+      <c r="U9" s="35">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="32" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L14" s="32" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="32" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C15" s="32">
         <v>25</v>
@@ -5758,115 +6370,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:D14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>